--- a/tools/FlashData/Flash空间规划.xlsx
+++ b/tools/FlashData/Flash空间规划.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20363"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20366"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\STM32\USBPlusFreeRTOS\tools\FlashData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\STM32\KeyboardFirmwareRTOS\tools\FlashData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABEEE809-4A06-4C02-BC26-92F49276D3E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DFE08B-A2FD-4807-A136-18713154D821}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9435" xr2:uid="{9E9676C1-6C20-42AC-8065-8CA27774938F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="8040" xr2:uid="{9E9676C1-6C20-42AC-8065-8CA27774938F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,13 +99,33 @@
     <t>等线14*14Unicode字库</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>degree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rads</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mapped</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LCD 44 16进制字库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="#,##0_ "/>
+    <numFmt numFmtId="176" formatCode="#,##0_ "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -155,14 +176,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -188,8 +214,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{223F2CCF-9CFC-4E88-B315-94CC7F02E8CB}">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="2"/>
+      <tableStyleElement type="headerRow" dxfId="1"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -500,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C66EB2-B153-472D-87AA-687D58304D2A}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -550,14 +576,14 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="str">
-        <f>"0x"&amp;CONCATENATE(REPT("0",6-LEN(DEC2HEX(C2))),DEC2HEX(C2))</f>
+        <f>"0x"&amp;DEC2HEX(C2,6)</f>
         <v>0x000000</v>
       </c>
       <c r="E2" s="3">
         <v>8192</v>
       </c>
       <c r="F2" s="2" t="str">
-        <f>"0x"&amp;CONCATENATE(REPT("0",6-LEN(DEC2HEX(E2))),DEC2HEX(E2))</f>
+        <f>"0x"&amp;DEC2HEX(E2,6)</f>
         <v>0x002000</v>
       </c>
       <c r="G2" s="1" t="str">
@@ -578,31 +604,31 @@
         <v>8192</v>
       </c>
       <c r="D3" s="2" t="str">
-        <f t="shared" ref="D3:D12" si="0">"0x"&amp;CONCATENATE(REPT("0",6-LEN(DEC2HEX(C3))),DEC2HEX(C3))</f>
+        <f t="shared" ref="D3:D13" si="0">"0x"&amp;DEC2HEX(C3,6)</f>
         <v>0x002000</v>
       </c>
       <c r="E3" s="3">
         <v>8192</v>
       </c>
       <c r="F3" s="2" t="str">
-        <f t="shared" ref="F3:F11" si="1">"0x"&amp;CONCATENATE(REPT("0",6-LEN(DEC2HEX(E3))),DEC2HEX(E3))</f>
+        <f t="shared" ref="F3:F12" si="1">"0x"&amp;DEC2HEX(E3,6)</f>
         <v>0x002000</v>
       </c>
       <c r="G3" s="1" t="str">
-        <f t="shared" ref="G3:G11" si="2">(E3/1024)&amp;"KB"</f>
+        <f t="shared" ref="G3:G12" si="2">(E3/1024)&amp;"KB"</f>
         <v>8KB</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
-        <f t="shared" ref="A4:A10" si="3">A3+1</f>
+        <f t="shared" ref="A4:A13" si="3">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="3">
-        <f t="shared" ref="C4:C12" si="4">C3+E3</f>
+        <f t="shared" ref="C4:C13" si="4">C3+E3</f>
         <v>16384</v>
       </c>
       <c r="D4" s="2" t="str">
@@ -746,7 +772,7 @@
         <v>57344</v>
       </c>
       <c r="D9" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>"0x"&amp;DEC2HEX(C9,6)</f>
         <v>0x00E000</v>
       </c>
       <c r="E9" s="3">
@@ -778,70 +804,2024 @@
         <v>0x010000</v>
       </c>
       <c r="E10" s="3">
-        <v>1063840</v>
+        <v>2086295</v>
       </c>
       <c r="F10" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0x103BA0</v>
+        <v>0x1FD597</v>
       </c>
       <c r="G10" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>1038.90625KB</v>
+        <v>2037.3974609375KB</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
-        <f>A10+1</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C11" s="3">
-        <f>C10+E10</f>
-        <v>1129376</v>
+        <f t="shared" si="4"/>
+        <v>2151831</v>
       </c>
       <c r="D11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0x113BA0</v>
+        <v>0x20D597</v>
       </c>
       <c r="E11" s="3">
-        <f>8*1024*1024-C11</f>
-        <v>7259232</v>
+        <v>6547</v>
       </c>
       <c r="F11" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0x6EC460</v>
+        <v>0x001993</v>
       </c>
       <c r="G11" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>7089.09375KB</v>
+        <v>6.3935546875KB</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
-        <f>A11+1</f>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" si="4"/>
+        <v>2158378</v>
+      </c>
+      <c r="D12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0x20EF2A</v>
+      </c>
+      <c r="E12" s="3">
+        <f>8*1024*1024-C12</f>
+        <v>6230230</v>
+      </c>
+      <c r="F12" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0x5F10D6</v>
+      </c>
+      <c r="G12" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>6084.208984375KB</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C13" s="3">
         <f t="shared" si="4"/>
         <v>8388608</v>
       </c>
-      <c r="D12" s="2" t="str">
-        <f>"0x"&amp;CONCATENATE(REPT("0",6-LEN(DEC2HEX(C12))),DEC2HEX(C12))</f>
+      <c r="D13" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>0x800000</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F13" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="E11" formula="1"/>
+    <ignoredError sqref="E12" formula="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{713DF3EE-E621-4778-87C2-A064B308790B}">
+  <dimension ref="A1:E91"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E91"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <f>RADIANS(A2)</f>
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <f>SIN(B2)</f>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f>ROUND(C2*65535,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E2" t="str">
+        <f>"0x"&amp;DEC2HEX(D2,4)</f>
+        <v>0x0000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B66" si="0">RADIANS(A3)</f>
+        <v>1.7453292519943295E-2</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C66" si="1">SIN(B3)</f>
+        <v>1.7452406437283512E-2</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D66" si="2">ROUND(C3*65535,0)</f>
+        <v>1144</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E66" si="3">"0x"&amp;DEC2HEX(D3,4)</f>
+        <v>0x0478</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>3.4906585039886591E-2</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>3.4899496702500969E-2</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="2"/>
+        <v>2287</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="3"/>
+        <v>0x08EF</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>5.235987755982989E-2</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>5.2335956242943835E-2</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="2"/>
+        <v>3430</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="3"/>
+        <v>0x0D66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>6.9813170079773182E-2</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>6.9756473744125302E-2</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>4571</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="3"/>
+        <v>0x11DB</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>8.7266462599716474E-2</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>8.7155742747658166E-2</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>5712</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="3"/>
+        <v>0x1650</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>0.10471975511965978</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>0.10452846326765347</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>6850</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="3"/>
+        <v>0x1AC2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>0.12217304763960307</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>0.12186934340514748</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>7987</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="3"/>
+        <v>0x1F33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>0.13962634015954636</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>0.13917310096006544</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>9121</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="3"/>
+        <v>0x23A1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>0.15707963267948966</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>0.15643446504023087</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>10252</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="3"/>
+        <v>0x280C</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>0.17453292519943295</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>0.17364817766693033</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>11380</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="3"/>
+        <v>0x2C74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>0.19198621771937624</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>0.1908089953765448</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>12505</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="3"/>
+        <v>0x30D9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>0.20943951023931956</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>0.20791169081775934</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>13625</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="3"/>
+        <v>0x3539</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>0.22689280275926285</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>0.224951054343865</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>14742</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="3"/>
+        <v>0x3996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>0.24434609527920614</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>0.24192189559966773</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>15854</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="3"/>
+        <v>0x3DEE</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>0.26179938779914941</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>0.25881904510252074</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>16962</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="3"/>
+        <v>0x4242</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>0.27925268031909273</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>0.27563735581699916</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>18064</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="3"/>
+        <v>0x4690</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>0.29670597283903605</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>0.29237170472273677</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>19161</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="3"/>
+        <v>0x4AD9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>0.31415926535897931</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>0.3090169943749474</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="2"/>
+        <v>20251</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="3"/>
+        <v>0x4F1B</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>0.33161255787892263</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>0.3255681544571567</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="2"/>
+        <v>21336</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="3"/>
+        <v>0x5358</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>0.3490658503988659</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>0.34202014332566871</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="2"/>
+        <v>22414</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="3"/>
+        <v>0x578E</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>0.36651914291880922</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>0.35836794954530027</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="2"/>
+        <v>23486</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="3"/>
+        <v>0x5BBE</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>0.38397243543875248</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>0.37460659341591201</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="2"/>
+        <v>24550</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="3"/>
+        <v>0x5FE6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>0.4014257279586958</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>0.39073112848927377</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="2"/>
+        <v>25607</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="3"/>
+        <v>0x6407</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>0.41887902047863912</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>0.40673664307580021</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="2"/>
+        <v>26655</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="3"/>
+        <v>0x681F</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>0.43633231299858238</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>0.42261826174069944</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="2"/>
+        <v>27696</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="3"/>
+        <v>0x6C30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>0.4537856055185257</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>0.4383711467890774</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="2"/>
+        <v>28729</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="3"/>
+        <v>0x7039</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>0.47123889803846897</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>0.45399049973954675</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="2"/>
+        <v>29752</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="3"/>
+        <v>0x7438</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>0.48869219055841229</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>0.46947156278589081</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="2"/>
+        <v>30767</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="3"/>
+        <v>0x782F</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>0.50614548307835561</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>0.48480962024633706</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="2"/>
+        <v>31772</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="3"/>
+        <v>0x7C1C</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>0.49999999999999994</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="2"/>
+        <v>32768</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="3"/>
+        <v>0x8000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>0.54105206811824214</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="1"/>
+        <v>0.51503807491005416</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="2"/>
+        <v>33753</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="3"/>
+        <v>0x83D9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>0.55850536063818546</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="1"/>
+        <v>0.5299192642332049</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="2"/>
+        <v>34728</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="3"/>
+        <v>0x87A8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>0.57595865315812877</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="1"/>
+        <v>0.54463903501502708</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="2"/>
+        <v>35693</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="3"/>
+        <v>0x8B6D</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>0.59341194567807209</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="1"/>
+        <v>0.5591929034707469</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="2"/>
+        <v>36647</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="3"/>
+        <v>0x8F27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>0.6108652381980153</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="1"/>
+        <v>0.57357643635104605</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="2"/>
+        <v>37589</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="3"/>
+        <v>0x92D5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>0.62831853071795862</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="1"/>
+        <v>0.58778525229247314</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="2"/>
+        <v>38521</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="3"/>
+        <v>0x9679</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>0.64577182323790194</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="1"/>
+        <v>0.60181502315204827</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="2"/>
+        <v>39440</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="3"/>
+        <v>0x9A10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>0.66322511575784526</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="1"/>
+        <v>0.61566147532565829</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="2"/>
+        <v>40347</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="3"/>
+        <v>0x9D9B</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>0.68067840827778847</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="1"/>
+        <v>0.62932039104983739</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="2"/>
+        <v>41243</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="3"/>
+        <v>0xA11B</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>0.69813170079773179</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="1"/>
+        <v>0.64278760968653925</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="2"/>
+        <v>42125</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="3"/>
+        <v>0xA48D</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>0.71558499331767511</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="1"/>
+        <v>0.65605902899050728</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="2"/>
+        <v>42995</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="3"/>
+        <v>0xA7F3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>0.73303828583761843</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="1"/>
+        <v>0.66913060635885824</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="2"/>
+        <v>43851</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="3"/>
+        <v>0xAB4B</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>0.75049157835756175</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="1"/>
+        <v>0.68199836006249848</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="2"/>
+        <v>44695</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="3"/>
+        <v>0xAE97</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>0.76794487087750496</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="1"/>
+        <v>0.69465837045899725</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="2"/>
+        <v>45524</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="3"/>
+        <v>0xB1D4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="1"/>
+        <v>0.70710678118654746</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="2"/>
+        <v>46340</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="3"/>
+        <v>0xB504</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>0.8028514559173916</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="1"/>
+        <v>0.71933980033865108</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="2"/>
+        <v>47142</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="3"/>
+        <v>0xB826</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>0.82030474843733492</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="1"/>
+        <v>0.73135370161917046</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="2"/>
+        <v>47929</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="3"/>
+        <v>0xBB39</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>0.83775804095727824</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="1"/>
+        <v>0.74314482547739424</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="2"/>
+        <v>48702</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="3"/>
+        <v>0xBE3E</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>0.85521133347722145</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="1"/>
+        <v>0.75470958022277201</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="2"/>
+        <v>49460</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="3"/>
+        <v>0xC134</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>0.87266462599716477</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="1"/>
+        <v>0.76604444311897801</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="2"/>
+        <v>50203</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="3"/>
+        <v>0xC41B</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="0"/>
+        <v>0.89011791851710809</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="1"/>
+        <v>0.7771459614569709</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="2"/>
+        <v>50930</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="3"/>
+        <v>0xC6F2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>0.90757121103705141</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="1"/>
+        <v>0.78801075360672201</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="2"/>
+        <v>51642</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="3"/>
+        <v>0xC9BA</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>0.92502450355699462</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="1"/>
+        <v>0.79863551004729283</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="2"/>
+        <v>52339</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="3"/>
+        <v>0xCC73</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="0"/>
+        <v>0.94247779607693793</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="1"/>
+        <v>0.80901699437494745</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="2"/>
+        <v>53019</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="3"/>
+        <v>0xCF1B</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="0"/>
+        <v>0.95993108859688125</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="1"/>
+        <v>0.8191520442889918</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="2"/>
+        <v>53683</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="3"/>
+        <v>0xD1B3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>0.97738438111682457</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="1"/>
+        <v>0.82903757255504174</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="2"/>
+        <v>54331</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="3"/>
+        <v>0xD43B</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="0"/>
+        <v>0.99483767363676789</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="1"/>
+        <v>0.83867056794542405</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="2"/>
+        <v>54962</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="3"/>
+        <v>0xD6B2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>1.0122909661567112</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="1"/>
+        <v>0.84804809615642596</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="2"/>
+        <v>55577</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" si="3"/>
+        <v>0xD919</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="0"/>
+        <v>1.0297442586766545</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="1"/>
+        <v>0.85716730070211233</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="2"/>
+        <v>56174</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="3"/>
+        <v>0xDB6E</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="0"/>
+        <v>1.0471975511965976</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="1"/>
+        <v>0.8660254037844386</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="2"/>
+        <v>56755</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="3"/>
+        <v>0xDDB3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="0"/>
+        <v>1.064650843716541</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="1"/>
+        <v>0.87461970713939574</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="2"/>
+        <v>57318</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="3"/>
+        <v>0xDFE6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="0"/>
+        <v>1.0821041362364843</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="1"/>
+        <v>0.88294759285892688</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="2"/>
+        <v>57864</v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" si="3"/>
+        <v>0xE208</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="0"/>
+        <v>1.0995574287564276</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="1"/>
+        <v>0.89100652418836779</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="2"/>
+        <v>58392</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" si="3"/>
+        <v>0xE418</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="0"/>
+        <v>1.1170107212763709</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="1"/>
+        <v>0.89879404629916704</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="2"/>
+        <v>58902</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" si="3"/>
+        <v>0xE616</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <f t="shared" ref="B67:B91" si="4">RADIANS(A67)</f>
+        <v>1.1344640137963142</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ref="C67:C91" si="5">SIN(B67)</f>
+        <v>0.90630778703664994</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ref="D67:D91" si="6">ROUND(C67*65535,0)</f>
+        <v>59395</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" ref="E67:E91" si="7">"0x"&amp;DEC2HEX(D67,4)</f>
+        <v>0xE803</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="4"/>
+        <v>1.1519173063162575</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="5"/>
+        <v>0.91354545764260087</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="6"/>
+        <v>59869</v>
+      </c>
+      <c r="E68" t="str">
+        <f t="shared" si="7"/>
+        <v>0xE9DD</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="4"/>
+        <v>1.1693705988362009</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="5"/>
+        <v>0.92050485345244037</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="6"/>
+        <v>60325</v>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" si="7"/>
+        <v>0xEBA5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="4"/>
+        <v>1.1868238913561442</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="5"/>
+        <v>0.92718385456678742</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="6"/>
+        <v>60763</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" si="7"/>
+        <v>0xED5B</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="4"/>
+        <v>1.2042771838760873</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="5"/>
+        <v>0.93358042649720174</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="6"/>
+        <v>61182</v>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" si="7"/>
+        <v>0xEEFE</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="4"/>
+        <v>1.2217304763960306</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="5"/>
+        <v>0.93969262078590832</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="6"/>
+        <v>61583</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" si="7"/>
+        <v>0xF08F</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="4"/>
+        <v>1.2391837689159739</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="5"/>
+        <v>0.94551857559931674</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="6"/>
+        <v>61965</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" si="7"/>
+        <v>0xF20D</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="4"/>
+        <v>1.2566370614359172</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="5"/>
+        <v>0.95105651629515353</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="6"/>
+        <v>62327</v>
+      </c>
+      <c r="E74" t="str">
+        <f t="shared" si="7"/>
+        <v>0xF377</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="4"/>
+        <v>1.2740903539558606</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="5"/>
+        <v>0.95630475596303544</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="6"/>
+        <v>62671</v>
+      </c>
+      <c r="E75" t="str">
+        <f t="shared" si="7"/>
+        <v>0xF4CF</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="4"/>
+        <v>1.2915436464758039</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="5"/>
+        <v>0.96126169593831889</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="6"/>
+        <v>62996</v>
+      </c>
+      <c r="E76" t="str">
+        <f t="shared" si="7"/>
+        <v>0xF614</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="4"/>
+        <v>1.3089969389957472</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="5"/>
+        <v>0.96592582628906831</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="6"/>
+        <v>63302</v>
+      </c>
+      <c r="E77" t="str">
+        <f t="shared" si="7"/>
+        <v>0xF746</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="4"/>
+        <v>1.3264502315156905</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="5"/>
+        <v>0.97029572627599647</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="6"/>
+        <v>63588</v>
+      </c>
+      <c r="E78" t="str">
+        <f t="shared" si="7"/>
+        <v>0xF864</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="4"/>
+        <v>1.3439035240356338</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="5"/>
+        <v>0.97437006478523525</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="6"/>
+        <v>63855</v>
+      </c>
+      <c r="E79" t="str">
+        <f t="shared" si="7"/>
+        <v>0xF96F</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="4"/>
+        <v>1.3613568165555769</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="5"/>
+        <v>0.97814760073380558</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="6"/>
+        <v>64103</v>
+      </c>
+      <c r="E80" t="str">
+        <f t="shared" si="7"/>
+        <v>0xFA67</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="4"/>
+        <v>1.3788101090755203</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="5"/>
+        <v>0.98162718344766398</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="6"/>
+        <v>64331</v>
+      </c>
+      <c r="E81" t="str">
+        <f t="shared" si="7"/>
+        <v>0xFB4B</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="4"/>
+        <v>1.3962634015954636</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="5"/>
+        <v>0.98480775301220802</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="6"/>
+        <v>64539</v>
+      </c>
+      <c r="E82" t="str">
+        <f t="shared" si="7"/>
+        <v>0xFC1B</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="4"/>
+        <v>1.4137166941154069</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="5"/>
+        <v>0.98768834059513777</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="6"/>
+        <v>64728</v>
+      </c>
+      <c r="E83" t="str">
+        <f t="shared" si="7"/>
+        <v>0xFCD8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="4"/>
+        <v>1.4311699866353502</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="5"/>
+        <v>0.99026806874157036</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="6"/>
+        <v>64897</v>
+      </c>
+      <c r="E84" t="str">
+        <f t="shared" si="7"/>
+        <v>0xFD81</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="4"/>
+        <v>1.4486232791552935</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="5"/>
+        <v>0.99254615164132198</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="6"/>
+        <v>65047</v>
+      </c>
+      <c r="E85" t="str">
+        <f t="shared" si="7"/>
+        <v>0xFE17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="4"/>
+        <v>1.4660765716752369</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="5"/>
+        <v>0.99452189536827329</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="6"/>
+        <v>65176</v>
+      </c>
+      <c r="E86" t="str">
+        <f t="shared" si="7"/>
+        <v>0xFE98</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="4"/>
+        <v>1.4835298641951802</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="5"/>
+        <v>0.99619469809174555</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="6"/>
+        <v>65286</v>
+      </c>
+      <c r="E87" t="str">
+        <f t="shared" si="7"/>
+        <v>0xFF06</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="4"/>
+        <v>1.5009831567151235</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="5"/>
+        <v>0.9975640502598242</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="6"/>
+        <v>65375</v>
+      </c>
+      <c r="E88" t="str">
+        <f t="shared" si="7"/>
+        <v>0xFF5F</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="4"/>
+        <v>1.5184364492350666</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="5"/>
+        <v>0.99862953475457383</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="6"/>
+        <v>65445</v>
+      </c>
+      <c r="E89" t="str">
+        <f t="shared" si="7"/>
+        <v>0xFFA5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="4"/>
+        <v>1.5358897417550099</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="5"/>
+        <v>0.99939082701909576</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="6"/>
+        <v>65495</v>
+      </c>
+      <c r="E90" t="str">
+        <f t="shared" si="7"/>
+        <v>0xFFD7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="4"/>
+        <v>1.5533430342749532</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="5"/>
+        <v>0.99984769515639127</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="6"/>
+        <v>65525</v>
+      </c>
+      <c r="E91" t="str">
+        <f t="shared" si="7"/>
+        <v>0xFFF5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="D2:D91">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>$D1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/tools/FlashData/Flash空间规划.xlsx
+++ b/tools/FlashData/Flash空间规划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\STM32\KeyboardFirmwareRTOS\tools\FlashData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DFE08B-A2FD-4807-A136-18713154D821}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD39D64A-4F32-4A80-B6D7-BF285C17BEC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="8040" xr2:uid="{9E9676C1-6C20-42AC-8065-8CA27774938F}"/>
   </bookViews>
@@ -529,7 +529,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -832,15 +832,15 @@
         <v>0x20D597</v>
       </c>
       <c r="E11" s="3">
-        <v>6547</v>
+        <v>5508</v>
       </c>
       <c r="F11" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0x001993</v>
+        <v>0x001584</v>
       </c>
       <c r="G11" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>6.3935546875KB</v>
+        <v>5.37890625KB</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -853,23 +853,23 @@
       </c>
       <c r="C12" s="3">
         <f t="shared" si="4"/>
-        <v>2158378</v>
+        <v>2157339</v>
       </c>
       <c r="D12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0x20EF2A</v>
+        <v>0x20EB1B</v>
       </c>
       <c r="E12" s="3">
         <f>8*1024*1024-C12</f>
-        <v>6230230</v>
+        <v>6231269</v>
       </c>
       <c r="F12" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0x5F10D6</v>
+        <v>0x5F14E5</v>
       </c>
       <c r="G12" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>6084.208984375KB</v>
+        <v>6085.2236328125KB</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">

--- a/tools/FlashData/Flash空间规划.xlsx
+++ b/tools/FlashData/Flash空间规划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\STM32\KeyboardFirmwareRTOS\tools\FlashData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD39D64A-4F32-4A80-B6D7-BF285C17BEC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE35077-2D2D-4CFE-9ECA-730B1DECD11E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="8040" xr2:uid="{9E9676C1-6C20-42AC-8065-8CA27774938F}"/>
   </bookViews>
@@ -96,10 +96,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>等线14*14Unicode字库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>degree</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -117,6 +113,10 @@
   </si>
   <si>
     <t>LCD 44 16进制字库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等线12Unicode字库</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -529,7 +529,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -793,7 +793,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" si="4"/>
@@ -804,15 +804,15 @@
         <v>0x010000</v>
       </c>
       <c r="E10" s="3">
-        <v>2086295</v>
+        <v>2141144</v>
       </c>
       <c r="F10" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0x1FD597</v>
+        <v>0x20ABD8</v>
       </c>
       <c r="G10" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>2037.3974609375KB</v>
+        <v>2090.9609375KB</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -821,15 +821,15 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" si="4"/>
-        <v>2151831</v>
+        <v>2206680</v>
       </c>
       <c r="D11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0x20D597</v>
+        <v>0x21ABD8</v>
       </c>
       <c r="E11" s="3">
         <v>5508</v>
@@ -853,23 +853,23 @@
       </c>
       <c r="C12" s="3">
         <f t="shared" si="4"/>
-        <v>2157339</v>
+        <v>2212188</v>
       </c>
       <c r="D12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0x20EB1B</v>
+        <v>0x21C15C</v>
       </c>
       <c r="E12" s="3">
         <f>8*1024*1024-C12</f>
-        <v>6231269</v>
+        <v>6176420</v>
       </c>
       <c r="F12" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0x5F14E5</v>
+        <v>0x5E3EA4</v>
       </c>
       <c r="G12" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>6085.2236328125KB</v>
+        <v>6031.66015625KB</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -912,16 +912,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>20</v>
-      </c>
-      <c r="D1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">

--- a/tools/FlashData/Flash空间规划.xlsx
+++ b/tools/FlashData/Flash空间规划.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20366"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\STM32\KeyboardFirmwareRTOS\tools\FlashData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE35077-2D2D-4CFE-9ECA-730B1DECD11E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0458F0D-D896-45F8-B7C0-07F600358806}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="8040" xr2:uid="{9E9676C1-6C20-42AC-8065-8CA27774938F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="4875" xr2:uid="{9E9676C1-6C20-42AC-8065-8CA27774938F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,13 +26,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>起始地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -88,10 +84,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>空闲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>结尾</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -119,6 +111,22 @@
     <t>等线12Unicode字库</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>空闲(自动填充)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Google Authenticator 密钥区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空闲(4K对齐)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起始地址(16进制)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -144,12 +152,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -166,7 +180,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -177,6 +191,30 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -526,17 +564,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C66EB2-B153-472D-87AA-687D58304D2A}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.25" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.25" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.125" style="1" bestFit="1" customWidth="1"/>
@@ -544,25 +583,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -570,7 +609,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="3">
         <v>0</v>
@@ -587,7 +626,7 @@
         <v>0x002000</v>
       </c>
       <c r="G2" s="1" t="str">
-        <f>(E2/1024)&amp;"KB"</f>
+        <f>ROUNDDOWN(E2/1024,0)&amp;"KB"</f>
         <v>8KB</v>
       </c>
     </row>
@@ -597,38 +636,38 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="3">
         <f>C2+E2</f>
         <v>8192</v>
       </c>
       <c r="D3" s="2" t="str">
-        <f t="shared" ref="D3:D13" si="0">"0x"&amp;DEC2HEX(C3,6)</f>
+        <f t="shared" ref="D3:D16" si="0">"0x"&amp;DEC2HEX(C3,6)</f>
         <v>0x002000</v>
       </c>
       <c r="E3" s="3">
         <v>8192</v>
       </c>
       <c r="F3" s="2" t="str">
-        <f t="shared" ref="F3:F12" si="1">"0x"&amp;DEC2HEX(E3,6)</f>
+        <f t="shared" ref="F3:F15" si="1">"0x"&amp;DEC2HEX(E3,6)</f>
         <v>0x002000</v>
       </c>
       <c r="G3" s="1" t="str">
-        <f t="shared" ref="G3:G12" si="2">(E3/1024)&amp;"KB"</f>
+        <f t="shared" ref="G3:G14" si="2">ROUNDDOWN(E3/1024,0)&amp;"KB"</f>
         <v>8KB</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
-        <f t="shared" ref="A4:A13" si="3">A3+1</f>
+        <f t="shared" ref="A4:A17" si="3">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="3">
-        <f t="shared" ref="C4:C13" si="4">C3+E3</f>
+        <f>C3+E3</f>
         <v>16384</v>
       </c>
       <c r="D4" s="2" t="str">
@@ -653,10 +692,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="3">
-        <f t="shared" si="4"/>
+        <f>C4+E4</f>
         <v>24576</v>
       </c>
       <c r="D5" s="2" t="str">
@@ -681,10 +720,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="3">
-        <f t="shared" si="4"/>
+        <f>C5+E5</f>
         <v>32768</v>
       </c>
       <c r="D6" s="2" t="str">
@@ -709,10 +748,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="3">
-        <f t="shared" si="4"/>
+        <f>C6+E6</f>
         <v>40960</v>
       </c>
       <c r="D7" s="2" t="str">
@@ -737,10 +776,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="3">
-        <f t="shared" si="4"/>
+        <f>C7+E7</f>
         <v>49152</v>
       </c>
       <c r="D8" s="2" t="str">
@@ -765,10 +804,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="3">
-        <f t="shared" si="4"/>
+        <f>C8+E8</f>
         <v>57344</v>
       </c>
       <c r="D9" s="2" t="str">
@@ -787,115 +826,207 @@
         <v>8KB</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="5">
+        <f>C9+E9</f>
+        <v>65536</v>
+      </c>
+      <c r="D10" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0x010000</v>
+      </c>
+      <c r="E10" s="5">
+        <v>2129939</v>
+      </c>
+      <c r="F10" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>0x208013</v>
+      </c>
+      <c r="G10" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>2080KB</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="9">
+        <f>C10+E10</f>
+        <v>2195475</v>
+      </c>
+      <c r="D11" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>0x218013</v>
+      </c>
+      <c r="E11" s="9">
+        <f>ROUNDUP(E10/4096,0)*4096-E10</f>
+        <v>4077</v>
+      </c>
+      <c r="F11" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>0x000FED</v>
+      </c>
+      <c r="G11" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>3KB</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="5">
+        <f>C11+E11</f>
+        <v>2199552</v>
+      </c>
+      <c r="D12" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0x219000</v>
+      </c>
+      <c r="E12" s="5">
+        <v>5508</v>
+      </c>
+      <c r="F12" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>0x001584</v>
+      </c>
+      <c r="G12" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>5KB</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="9">
+        <f>C12+E12</f>
+        <v>2205060</v>
+      </c>
+      <c r="D13" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>0x21A584</v>
+      </c>
+      <c r="E13" s="9">
+        <f>ROUNDUP(E12/4096,0)*4096-E12</f>
+        <v>2684</v>
+      </c>
+      <c r="F13" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>0x000A7C</v>
+      </c>
+      <c r="G13" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>2KB</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="3">
-        <f t="shared" si="4"/>
+      <c r="C14" s="5">
+        <f>C13+E13</f>
+        <v>2207744</v>
+      </c>
+      <c r="D14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0x21B000</v>
+      </c>
+      <c r="E14" s="5">
         <v>65536</v>
       </c>
-      <c r="D10" s="2" t="str">
-        <f t="shared" si="0"/>
+      <c r="F14" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>0x010000</v>
       </c>
-      <c r="E10" s="3">
-        <v>2141144</v>
-      </c>
-      <c r="F10" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>0x20ABD8</v>
-      </c>
-      <c r="G10" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>2090.9609375KB</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="G14" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>64KB</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="3">
-        <f t="shared" si="4"/>
-        <v>2206680</v>
-      </c>
-      <c r="D11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>0x21ABD8</v>
-      </c>
-      <c r="E11" s="3">
-        <v>5508</v>
-      </c>
-      <c r="F11" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>0x001584</v>
-      </c>
-      <c r="G11" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>5.37890625KB</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="C15" s="3">
+        <f>C14+E14</f>
+        <v>2273280</v>
+      </c>
+      <c r="D15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0x22B000</v>
+      </c>
+      <c r="E15" s="3">
+        <f>8*1024*1024-C15</f>
+        <v>6115328</v>
+      </c>
+      <c r="F15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0x5D5000</v>
+      </c>
+      <c r="G15" s="1" t="str">
+        <f t="shared" ref="G15" si="4">(E15/1024)&amp;"KB"</f>
+        <v>5972KB</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="C12" s="3">
-        <f t="shared" si="4"/>
-        <v>2212188</v>
-      </c>
-      <c r="D12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>0x21C15C</v>
-      </c>
-      <c r="E12" s="3">
-        <f>8*1024*1024-C12</f>
-        <v>6176420</v>
-      </c>
-      <c r="F12" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>0x5E3EA4</v>
-      </c>
-      <c r="G12" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>6031.66015625KB</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="3">
+        <f>C15+E15</f>
+        <v>8388608</v>
+      </c>
+      <c r="D16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0x800000</v>
+      </c>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="C13" s="3">
-        <f t="shared" si="4"/>
-        <v>8388608</v>
-      </c>
-      <c r="D13" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>0x800000</v>
-      </c>
-      <c r="F13" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="E12" formula="1"/>
+    <ignoredError sqref="E15 E13 E11" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -912,16 +1043,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
